--- a/游戏及时长.xlsx
+++ b/游戏及时长.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="108">
   <si>
     <t>游戏名</t>
   </si>
@@ -28,12 +28,15 @@
     <t>21月</t>
   </si>
   <si>
+    <t>原神</t>
+  </si>
+  <si>
+    <t>6月</t>
+  </si>
+  <si>
     <t>战双帕弥什</t>
   </si>
   <si>
-    <t>6月</t>
-  </si>
-  <si>
     <t>公主连结</t>
   </si>
   <si>
@@ -46,7 +49,21 @@
     <t>3月</t>
   </si>
   <si>
-    <t>原神</t>
+    <t>皇室战争</t>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
   </si>
   <si>
     <t>影之诗</t>
@@ -339,12 +356,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -372,6 +389,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -382,73 +404,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,6 +454,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -486,8 +531,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,41 +541,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -541,37 +569,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,145 +749,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,6 +760,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -746,6 +783,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,15 +835,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -802,21 +845,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -838,10 +866,10 @@
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,137 +878,137 @@
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -990,8 +1018,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1253,10 +1282,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
@@ -1295,36 +1324,36 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="3" t="s">
@@ -1351,16 +1380,16 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="3" t="s">
@@ -1391,15 +1420,15 @@
         <v>27</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -1431,28 +1460,28 @@
         <v>36</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
-      <c r="A25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A25" s="6"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" customHeight="1" spans="1:2">
       <c r="A26" s="3" t="s">
@@ -1467,23 +1496,23 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
@@ -1495,31 +1524,31 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
-      <c r="A32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="A32" s="6"/>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" customHeight="1" spans="1:2">
       <c r="A33" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
       <c r="A34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -1527,31 +1556,31 @@
         <v>54</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
       <c r="A36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -1559,15 +1588,15 @@
         <v>59</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
       <c r="A40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -1599,23 +1628,23 @@
         <v>68</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
       <c r="A45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -1623,20 +1652,20 @@
         <v>72</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="4"/>
+      <c r="A48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
-      <c r="A49" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="A49" s="6"/>
+      <c r="B49" s="4"/>
     </row>
     <row r="50" customHeight="1" spans="1:2">
       <c r="A50" s="3" t="s">
@@ -1731,15 +1760,15 @@
         <v>97</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:2">
@@ -1755,20 +1784,28 @@
         <v>102</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:1">
-      <c r="A66" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:2">
+      <c r="A66" s="3" t="s">
         <v>105</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:1">
+      <c r="A67" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/游戏及时长.xlsx
+++ b/游戏及时长.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
   <si>
     <t>游戏名</t>
   </si>
@@ -25,35 +25,8 @@
     <t>明日方舟</t>
   </si>
   <si>
-    <t>21月</t>
-  </si>
-  <si>
-    <t>原神</t>
-  </si>
-  <si>
-    <t>6月</t>
-  </si>
-  <si>
-    <t>战双帕弥什</t>
-  </si>
-  <si>
-    <t>公主连结</t>
-  </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
-    <t>从零开始的异世界生活无限</t>
-  </si>
-  <si>
-    <t>3月</t>
-  </si>
-  <si>
-    <t>皇室战争</t>
-  </si>
-  <si>
     <r>
-      <t>6</t>
+      <t>315</t>
     </r>
     <r>
       <rPr>
@@ -62,7 +35,84 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>月</t>
+      <t>小时</t>
+    </r>
+  </si>
+  <si>
+    <t>原神</t>
+  </si>
+  <si>
+    <r>
+      <t>180</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时</t>
+    </r>
+  </si>
+  <si>
+    <t>战双帕弥什</t>
+  </si>
+  <si>
+    <r>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时</t>
+    </r>
+  </si>
+  <si>
+    <t>公主连结</t>
+  </si>
+  <si>
+    <t>120小时</t>
+  </si>
+  <si>
+    <t>从零开始的异世界生活无限</t>
+  </si>
+  <si>
+    <r>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时</t>
+    </r>
+  </si>
+  <si>
+    <t>皇室战争</t>
+  </si>
+  <si>
+    <t>雀魂</t>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时</t>
     </r>
   </si>
   <si>
@@ -356,12 +406,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -376,6 +426,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -389,6 +445,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -403,6 +465,73 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -410,37 +539,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,59 +562,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -531,6 +586,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -548,16 +610,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -569,187 +625,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,8 +822,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,15 +882,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -860,167 +907,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1282,10 +1344,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
@@ -1298,514 +1360,522 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A14" s="8"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>28</v>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:2">
+      <c r="A37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:2">
+      <c r="A43" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:2">
+      <c r="A44" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:2">
+      <c r="A47" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:2">
+      <c r="A49" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:2">
+      <c r="A50" s="8"/>
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:2">
+      <c r="A51" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:2">
+      <c r="A52" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:2">
+      <c r="A53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:2">
+      <c r="A54" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:2">
+      <c r="A55" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:2">
+      <c r="A56" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:2">
+      <c r="A57" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:2">
+      <c r="A58" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:2">
+      <c r="A59" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:2">
+      <c r="A60" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:2">
+      <c r="A61" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:2">
+      <c r="A62" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:2">
+      <c r="A63" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:2">
+      <c r="A64" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:2">
+      <c r="A65" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:2">
+      <c r="A66" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:2">
-      <c r="A24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:2">
-      <c r="A26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:2">
-      <c r="A27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:2">
-      <c r="A28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:2">
-      <c r="A29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:2">
-      <c r="A30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:2">
-      <c r="A31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:2">
-      <c r="A34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:2">
-      <c r="A35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:2">
-      <c r="A36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:2">
-      <c r="A37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:2">
-      <c r="A38" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:2">
-      <c r="A39" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:2">
-      <c r="A40" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:2">
-      <c r="A41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:2">
-      <c r="A42" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:2">
-      <c r="A43" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:2">
-      <c r="A44" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:2">
-      <c r="A45" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:2">
-      <c r="A46" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:2">
-      <c r="A47" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:2">
-      <c r="A48" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:2">
-      <c r="A50" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:2">
-      <c r="A51" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:2">
-      <c r="A52" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:2">
-      <c r="A53" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:2">
-      <c r="A54" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:2">
-      <c r="A55" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:2">
-      <c r="A56" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:2">
-      <c r="A57" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:2">
-      <c r="A58" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:2">
-      <c r="A59" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="1:2">
-      <c r="A60" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:2">
-      <c r="A61" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:2">
-      <c r="A62" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:2">
-      <c r="A63" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:2">
-      <c r="A64" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="1:2">
-      <c r="A65" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:2">
-      <c r="A66" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="1:1">
-      <c r="A67" s="7" t="s">
+    <row r="67" customHeight="1" spans="1:2">
+      <c r="A67" s="4" t="s">
         <v>107</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:1">
+      <c r="A68" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/游戏及时长.xlsx
+++ b/游戏及时长.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="112">
   <si>
     <t>游戏名</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>180</t>
     </r>
     <r>
@@ -60,6 +66,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>200</t>
     </r>
     <r>
@@ -83,6 +95,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>80</t>
     </r>
     <r>
@@ -103,6 +121,93 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时</t>
+    </r>
+  </si>
+  <si>
+    <t>英雄联盟</t>
+  </si>
+  <si>
+    <r>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时</t>
+    </r>
+  </si>
+  <si>
+    <t>影之诗</t>
+  </si>
+  <si>
+    <t>1224小时</t>
+  </si>
+  <si>
+    <t>地下城与勇士</t>
+  </si>
+  <si>
+    <t>3500小时</t>
+  </si>
+  <si>
+    <t>炉石传说</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时</t>
+    </r>
+  </si>
+  <si>
+    <t>空洞骑士</t>
+  </si>
+  <si>
+    <t>67小时</t>
+  </si>
+  <si>
+    <t>暗黑破坏神3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>100</t>
     </r>
     <r>
@@ -114,36 +219,6 @@
       </rPr>
       <t>小时</t>
     </r>
-  </si>
-  <si>
-    <t>影之诗</t>
-  </si>
-  <si>
-    <t>1224小时</t>
-  </si>
-  <si>
-    <t>地下城与勇士</t>
-  </si>
-  <si>
-    <t>3500小时</t>
-  </si>
-  <si>
-    <t>炉石传说</t>
-  </si>
-  <si>
-    <t>1200小时</t>
-  </si>
-  <si>
-    <t>暗黑破坏神3</t>
-  </si>
-  <si>
-    <t>300小时</t>
-  </si>
-  <si>
-    <t>空洞骑士</t>
-  </si>
-  <si>
-    <t>67小时</t>
   </si>
   <si>
     <t>尼尔：机械纪元</t>
@@ -465,9 +540,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -475,80 +557,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,9 +570,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,6 +599,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -586,8 +645,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,26 +655,41 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -625,25 +700,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,157 +874,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,15 +891,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -843,17 +909,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,7 +937,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,6 +959,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -907,164 +991,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1081,6 +1156,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -1344,10 +1420,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
@@ -1422,11 +1498,11 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="5"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1458,7 +1534,7 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" s="8"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="5"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -1498,15 +1574,15 @@
         <v>31</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
       <c r="A20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -1538,28 +1614,28 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
-      <c r="A27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A27" s="9"/>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" customHeight="1" spans="1:2">
       <c r="A28" s="4" t="s">
@@ -1574,23 +1650,23 @@
         <v>47</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -1602,31 +1678,31 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
-      <c r="A34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="A34" s="9"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" customHeight="1" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
       <c r="A36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -1634,31 +1710,31 @@
         <v>58</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:2">
       <c r="A38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -1666,15 +1742,15 @@
         <v>63</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
       <c r="A42" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -1706,23 +1782,23 @@
         <v>72</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
       <c r="A47" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -1730,20 +1806,20 @@
         <v>76</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="5"/>
+      <c r="A50" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="51" customHeight="1" spans="1:2">
-      <c r="A51" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="A51" s="9"/>
+      <c r="B51" s="5"/>
     </row>
     <row r="52" customHeight="1" spans="1:2">
       <c r="A52" s="4" t="s">
@@ -1838,15 +1914,15 @@
         <v>101</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:2">
       <c r="A64" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:2">
@@ -1862,20 +1938,28 @@
         <v>106</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:1">
-      <c r="A68" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:2">
+      <c r="A68" s="4" t="s">
         <v>109</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:1">
+      <c r="A69" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/游戏及时长.xlsx
+++ b/游戏及时长.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="113">
   <si>
     <t>游戏名</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>315</t>
     </r>
     <r>
@@ -144,35 +150,6 @@
   </si>
   <si>
     <r>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小时</t>
-    </r>
-  </si>
-  <si>
-    <t>影之诗</t>
-  </si>
-  <si>
-    <t>1224小时</t>
-  </si>
-  <si>
-    <t>地下城与勇士</t>
-  </si>
-  <si>
-    <t>3500小时</t>
-  </si>
-  <si>
-    <t>炉石传说</t>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
@@ -190,6 +167,21 @@
       </rPr>
       <t>小时</t>
     </r>
+  </si>
+  <si>
+    <t>影之诗</t>
+  </si>
+  <si>
+    <t>1224小时</t>
+  </si>
+  <si>
+    <t>地下城与勇士</t>
+  </si>
+  <si>
+    <t>3500小时</t>
+  </si>
+  <si>
+    <t>炉石传说</t>
   </si>
   <si>
     <t>空洞骑士</t>
@@ -293,6 +285,23 @@
     <t>莱莎的炼金工房2</t>
   </si>
   <si>
+    <t>健身环大冒险</t>
+  </si>
+  <si>
+    <r>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时</t>
+    </r>
+  </si>
+  <si>
     <t>动物森友会</t>
   </si>
   <si>
@@ -481,10 +490,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -540,14 +549,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -559,6 +575,51 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -570,22 +631,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,44 +647,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -647,45 +657,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,187 +709,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,6 +900,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -909,15 +929,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -929,6 +940,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,177 +1000,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1420,10 +1429,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
@@ -1530,7 +1539,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -1539,98 +1548,98 @@
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
       <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
       <c r="A17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
       <c r="A19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
       <c r="A21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
       <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
       <c r="A23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
       <c r="A24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
       <c r="A26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -1639,70 +1648,70 @@
     </row>
     <row r="28" customHeight="1" spans="1:2">
       <c r="A28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
       <c r="A29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
       <c r="A31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:2">
+      <c r="A32" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:2">
-      <c r="A32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
       <c r="A33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="5" t="s">
+    </row>
+    <row r="34" customHeight="1" spans="1:2">
+      <c r="A34" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="5"/>
+      <c r="B34" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
-      <c r="A35" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" customHeight="1" spans="1:2">
       <c r="A36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -1710,15 +1719,15 @@
         <v>58</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:2">
       <c r="A38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -1726,7 +1735,7 @@
         <v>61</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -1734,7 +1743,7 @@
         <v>62</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -1742,15 +1751,15 @@
         <v>63</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
       <c r="A42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -1758,39 +1767,39 @@
         <v>66</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
       <c r="A44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
       <c r="A45" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
       <c r="A46" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
       <c r="A47" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:2">
@@ -1798,7 +1807,7 @@
         <v>75</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -1806,123 +1815,123 @@
         <v>76</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
       <c r="A50" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="51" customHeight="1" spans="1:2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="5"/>
+      <c r="A51" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
-      <c r="A52" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="A52" s="9"/>
+      <c r="B52" s="5"/>
     </row>
     <row r="53" customHeight="1" spans="1:2">
       <c r="A53" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:2">
       <c r="A54" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
       <c r="A55" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
       <c r="A56" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:2">
       <c r="A57" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:2">
       <c r="A58" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:2">
       <c r="A59" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
       <c r="A60" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
       <c r="A61" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:2">
       <c r="A62" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:2">
       <c r="A63" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:2">
       <c r="A64" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:2">
@@ -1930,23 +1939,23 @@
         <v>104</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:2">
       <c r="A66" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:2">
       <c r="A67" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:2">
@@ -1954,12 +1963,20 @@
         <v>109</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:2">
+      <c r="A69" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:1">
-      <c r="A69" s="10" t="s">
+      <c r="B69" s="5" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:1">
+      <c r="A70" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/游戏及时长.xlsx
+++ b/游戏及时长.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="119">
   <si>
     <t>游戏名</t>
   </si>
   <si>
     <t>时长</t>
+  </si>
+  <si>
+    <t>最高成绩</t>
   </si>
   <si>
     <t>明日方舟</t>
@@ -120,7 +123,7 @@
     </r>
   </si>
   <si>
-    <t>皇室战争</t>
+    <t>部落冲突</t>
   </si>
   <si>
     <t>雀魂</t>
@@ -169,12 +172,35 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>钻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>云顶之弈</t>
+  </si>
+  <si>
+    <t>美服大师</t>
+  </si>
+  <si>
     <t>影之诗</t>
   </si>
   <si>
     <t>1224小时</t>
   </si>
   <si>
+    <t>Master</t>
+  </si>
+  <si>
     <t>地下城与勇士</t>
   </si>
   <si>
@@ -182,6 +208,29 @@
   </si>
   <si>
     <t>炉石传说</t>
+  </si>
+  <si>
+    <r>
+      <t>美服传说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名</t>
+    </r>
   </si>
   <si>
     <t>空洞骑士</t>
@@ -289,6 +338,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>40</t>
     </r>
     <r>
@@ -476,7 +531,17 @@
     <t>火影忍者 疾风传 终极风暴4</t>
   </si>
   <si>
-    <t>仁王2</t>
+    <r>
+      <t>仁王</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
   <si>
     <t>17小时</t>
@@ -490,10 +555,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -517,7 +582,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -556,7 +621,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -565,6 +629,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -572,54 +643,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -657,14 +714,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,14 +730,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,18 +745,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -715,55 +780,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,121 +954,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,17 +965,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -925,6 +979,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,6 +1016,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -971,180 +1049,167 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1166,8 +1231,8 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1429,10 +1494,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
@@ -1448,535 +1513,555 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="7"/>
       <c r="B9" s="5"/>
     </row>
-    <row r="10" customHeight="1" spans="1:2">
+    <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:2">
+    <row r="11" customHeight="1" spans="1:3">
+      <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" customHeight="1" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
       <c r="A26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
-      <c r="A28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="A28" s="10"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" customHeight="1" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
-      <c r="A32" s="7" t="s">
-        <v>50</v>
+      <c r="A32" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="4" t="s">
-        <v>52</v>
+      <c r="A33" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
-      <c r="A36" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" customHeight="1" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="5"/>
+      <c r="A52" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
-      <c r="A53" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>81</v>
-      </c>
+      <c r="A53" s="10"/>
+      <c r="B53" s="5"/>
     </row>
     <row r="54" customHeight="1" spans="1:2">
-      <c r="A54" s="4" t="s">
-        <v>82</v>
+      <c r="A54" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
-      <c r="A55" s="4" t="s">
-        <v>84</v>
+      <c r="A55" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:2">
       <c r="A58" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:2">
       <c r="A59" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
       <c r="A60" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:2">
       <c r="A62" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:2">
       <c r="A64" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:2">
       <c r="A65" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:2">
       <c r="A66" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:2">
       <c r="A68" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:2">
       <c r="A69" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:1">
-      <c r="A70" s="10" t="s">
-        <v>112</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:2">
+      <c r="A70" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:1">
+      <c r="A71" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/游戏及时长.xlsx
+++ b/游戏及时长.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="125">
   <si>
     <t>游戏名</t>
   </si>
@@ -172,8 +172,41 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>钻</t>
+    <t>钻5</t>
+  </si>
+  <si>
+    <t>云顶之弈</t>
+  </si>
+  <si>
+    <t>美服大师</t>
+  </si>
+  <si>
+    <t>影之诗</t>
+  </si>
+  <si>
+    <t>1224小时</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>地下城与勇士</t>
+  </si>
+  <si>
+    <t>3500小时</t>
+  </si>
+  <si>
+    <t>炉石传说</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美服传说</t>
     </r>
     <r>
       <rPr>
@@ -182,44 +215,6 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <t>云顶之弈</t>
-  </si>
-  <si>
-    <t>美服大师</t>
-  </si>
-  <si>
-    <t>影之诗</t>
-  </si>
-  <si>
-    <t>1224小时</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>地下城与勇士</t>
-  </si>
-  <si>
-    <t>3500小时</t>
-  </si>
-  <si>
-    <t>炉石传说</t>
-  </si>
-  <si>
-    <r>
-      <t>美服传说</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>100</t>
     </r>
     <r>
@@ -233,13 +228,27 @@
     </r>
   </si>
   <si>
-    <t>空洞骑士</t>
-  </si>
-  <si>
-    <t>67小时</t>
-  </si>
-  <si>
-    <t>暗黑破坏神3</t>
+    <t>祝姬</t>
+  </si>
+  <si>
+    <r>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时</t>
+    </r>
+  </si>
+  <si>
+    <t>近月少女的礼仪</t>
+  </si>
+  <si>
+    <t>三色绘恋</t>
   </si>
   <si>
     <r>
@@ -249,7 +258,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>100</t>
+      <t>34</t>
     </r>
     <r>
       <rPr>
@@ -262,79 +271,16 @@
     </r>
   </si>
   <si>
-    <t>尼尔：机械纪元</t>
-  </si>
-  <si>
-    <t>48小时</t>
-  </si>
-  <si>
-    <t>杀戮尖塔</t>
-  </si>
-  <si>
-    <t>185小时</t>
-  </si>
-  <si>
-    <t>鬼泣5</t>
-  </si>
-  <si>
-    <t>33小时</t>
-  </si>
-  <si>
-    <t>只狼</t>
-  </si>
-  <si>
-    <t>奥里与精灵意志</t>
-  </si>
-  <si>
-    <t>16小时</t>
-  </si>
-  <si>
-    <t>奥日与黑暗森林</t>
-  </si>
-  <si>
-    <t>24小时</t>
-  </si>
-  <si>
-    <t>神界：原罪2</t>
-  </si>
-  <si>
-    <t>65小时</t>
-  </si>
-  <si>
-    <t>糖豆人：终极淘汰赛</t>
-  </si>
-  <si>
-    <t>126小时</t>
-  </si>
-  <si>
-    <t>鬼谷八荒</t>
-  </si>
-  <si>
-    <t>天穗之咲稻姬</t>
-  </si>
-  <si>
-    <t>29小时</t>
-  </si>
-  <si>
-    <t>塞尔达荒野传说</t>
-  </si>
-  <si>
-    <t>70小时</t>
-  </si>
-  <si>
-    <t>异界锁链</t>
-  </si>
-  <si>
-    <t>25小时</t>
-  </si>
-  <si>
-    <t>莱莎的炼金工房</t>
-  </si>
-  <si>
-    <t>莱莎的炼金工房2</t>
-  </si>
-  <si>
-    <t>健身环大冒险</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>空洞骑士</t>
+  </si>
+  <si>
+    <t>67小时</t>
+  </si>
+  <si>
+    <t>暗黑破坏神3</t>
   </si>
   <si>
     <r>
@@ -344,7 +290,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>40</t>
+      <t>100</t>
     </r>
     <r>
       <rPr>
@@ -357,6 +303,101 @@
     </r>
   </si>
   <si>
+    <t>尼尔：机械纪元</t>
+  </si>
+  <si>
+    <t>48小时</t>
+  </si>
+  <si>
+    <t>杀戮尖塔</t>
+  </si>
+  <si>
+    <t>185小时</t>
+  </si>
+  <si>
+    <t>鬼泣5</t>
+  </si>
+  <si>
+    <t>33小时</t>
+  </si>
+  <si>
+    <t>只狼</t>
+  </si>
+  <si>
+    <t>奥里与精灵意志</t>
+  </si>
+  <si>
+    <t>16小时</t>
+  </si>
+  <si>
+    <t>奥日与黑暗森林</t>
+  </si>
+  <si>
+    <t>24小时</t>
+  </si>
+  <si>
+    <t>神界：原罪2</t>
+  </si>
+  <si>
+    <t>65小时</t>
+  </si>
+  <si>
+    <t>糖豆人：终极淘汰赛</t>
+  </si>
+  <si>
+    <t>126小时</t>
+  </si>
+  <si>
+    <t>鬼谷八荒</t>
+  </si>
+  <si>
+    <t>天穗之咲稻姬</t>
+  </si>
+  <si>
+    <t>29小时</t>
+  </si>
+  <si>
+    <t>塞尔达荒野传说</t>
+  </si>
+  <si>
+    <t>70小时</t>
+  </si>
+  <si>
+    <t>异界锁链</t>
+  </si>
+  <si>
+    <t>25小时</t>
+  </si>
+  <si>
+    <t>莱莎的炼金工房</t>
+  </si>
+  <si>
+    <t>莱莎的炼金工房2</t>
+  </si>
+  <si>
+    <t>健身环大冒险</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时</t>
+    </r>
+  </si>
+  <si>
     <t>动物森友会</t>
   </si>
   <si>
@@ -532,6 +573,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>仁王</t>
     </r>
     <r>
@@ -556,8 +602,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -614,22 +660,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,28 +685,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,6 +716,37 @@
       <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -714,56 +791,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -774,187 +820,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,6 +1011,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -983,11 +1044,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1016,32 +1094,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,162 +1111,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1494,10 +1540,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
@@ -1627,31 +1673,34 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:2">
+    <row r="15" customHeight="1" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:2">
-      <c r="A16" s="4" t="s">
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:3">
+      <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:3">
+      <c r="A18" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1676,31 +1725,31 @@
         <v>38</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
       <c r="A24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -1716,167 +1765,167 @@
         <v>47</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
-      <c r="A31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="A31" s="10"/>
+      <c r="B31" s="5"/>
     </row>
     <row r="32" customHeight="1" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="7" t="s">
-        <v>56</v>
+      <c r="A33" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
-      <c r="A39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
     </row>
     <row r="40" customHeight="1" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
       <c r="A44" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
       <c r="A47" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:2">
@@ -1892,63 +1941,63 @@
         <v>81</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
-      <c r="A53" s="10"/>
-      <c r="B53" s="5"/>
+      <c r="A53" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="54" customHeight="1" spans="1:2">
-      <c r="A54" s="7" t="s">
-        <v>86</v>
+      <c r="A54" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
-      <c r="A55" s="7" t="s">
-        <v>88</v>
+      <c r="A55" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
-      <c r="A56" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="A56" s="10"/>
+      <c r="B56" s="5"/>
     </row>
     <row r="57" customHeight="1" spans="1:2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -1956,7 +2005,7 @@
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -2024,44 +2073,68 @@
         <v>110</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:2">
       <c r="A68" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:2">
       <c r="A69" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:2">
-      <c r="A70" s="7" t="s">
-        <v>116</v>
+      <c r="A70" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="1:1">
-      <c r="A71" s="9" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:2">
+      <c r="A71" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:2">
+      <c r="A72" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:2">
+      <c r="A73" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:1">
+      <c r="A74" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
